--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hcrt</t>
   </si>
   <si>
     <t>Hcrtr1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2332876666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.699863</v>
+      </c>
+      <c r="I2">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="J2">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.2199456666666667</v>
+      </c>
+      <c r="N2">
+        <v>0.659837</v>
+      </c>
+      <c r="O2">
+        <v>0.1741526370979215</v>
+      </c>
+      <c r="P2">
+        <v>0.1741526370979214</v>
+      </c>
+      <c r="Q2">
+        <v>0.05131061137011111</v>
+      </c>
+      <c r="R2">
+        <v>0.461795502331</v>
+      </c>
+      <c r="S2">
+        <v>0.04440212411570886</v>
+      </c>
+      <c r="T2">
+        <v>0.04440212411570885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.2332876666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.699863</v>
+      </c>
+      <c r="I3">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="J3">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.05263566666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.157907</v>
+      </c>
+      <c r="O3">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="P3">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="Q3">
+        <v>0.01227925186011111</v>
+      </c>
+      <c r="R3">
+        <v>0.110513266741</v>
+      </c>
+      <c r="S3">
+        <v>0.01062596703843409</v>
+      </c>
+      <c r="T3">
+        <v>0.01062596703843409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2332876666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.699863</v>
+      </c>
+      <c r="I4">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="J4">
+        <v>0.2549609632999281</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.9903663333333332</v>
+      </c>
+      <c r="N4">
+        <v>2.971099</v>
+      </c>
+      <c r="O4">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="P4">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="Q4">
+        <v>0.2310402510485556</v>
+      </c>
+      <c r="R4">
+        <v>2.079362259437</v>
+      </c>
+      <c r="S4">
+        <v>0.1999328721457852</v>
+      </c>
+      <c r="T4">
+        <v>0.1999328721457852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.495670679221465</v>
-      </c>
-      <c r="H2">
-        <v>0.495670679221465</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.976985979948813</v>
-      </c>
-      <c r="N2">
-        <v>0.976985979948813</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.4842633042710767</v>
-      </c>
-      <c r="R2">
-        <v>0.4842633042710767</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.592495</v>
+      </c>
+      <c r="H5">
+        <v>1.777485</v>
+      </c>
+      <c r="I5">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="J5">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2199456666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.659837</v>
+      </c>
+      <c r="O5">
+        <v>0.1741526370979215</v>
+      </c>
+      <c r="P5">
+        <v>0.1741526370979214</v>
+      </c>
+      <c r="Q5">
+        <v>0.1303167077716667</v>
+      </c>
+      <c r="R5">
+        <v>1.172850369945</v>
+      </c>
+      <c r="S5">
+        <v>0.1127707988332156</v>
+      </c>
+      <c r="T5">
+        <v>0.1127707988332156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.592495</v>
+      </c>
+      <c r="H6">
+        <v>1.777485</v>
+      </c>
+      <c r="I6">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="J6">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05263566666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.157907</v>
+      </c>
+      <c r="O6">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="P6">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="Q6">
+        <v>0.03118636932166666</v>
+      </c>
+      <c r="R6">
+        <v>0.280677323895</v>
+      </c>
+      <c r="S6">
+        <v>0.02698742042558476</v>
+      </c>
+      <c r="T6">
+        <v>0.02698742042558476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.592495</v>
+      </c>
+      <c r="H7">
+        <v>1.777485</v>
+      </c>
+      <c r="I7">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="J7">
+        <v>0.647540001187622</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9903663333333332</v>
+      </c>
+      <c r="N7">
+        <v>2.971099</v>
+      </c>
+      <c r="O7">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="P7">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="Q7">
+        <v>0.5867871006683333</v>
+      </c>
+      <c r="R7">
+        <v>5.281083906015</v>
+      </c>
+      <c r="S7">
+        <v>0.5077817819288217</v>
+      </c>
+      <c r="T7">
+        <v>0.5077817819288217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.089211</v>
+      </c>
+      <c r="H8">
+        <v>0.267633</v>
+      </c>
+      <c r="I8">
+        <v>0.0974990355124498</v>
+      </c>
+      <c r="J8">
+        <v>0.09749903551244982</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2199456666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.659837</v>
+      </c>
+      <c r="O8">
+        <v>0.1741526370979215</v>
+      </c>
+      <c r="P8">
+        <v>0.1741526370979214</v>
+      </c>
+      <c r="Q8">
+        <v>0.019621572869</v>
+      </c>
+      <c r="R8">
+        <v>0.176594155821</v>
+      </c>
+      <c r="S8">
+        <v>0.01697971414899703</v>
+      </c>
+      <c r="T8">
+        <v>0.01697971414899703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.089211</v>
+      </c>
+      <c r="H9">
+        <v>0.267633</v>
+      </c>
+      <c r="I9">
+        <v>0.0974990355124498</v>
+      </c>
+      <c r="J9">
+        <v>0.09749903551244982</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05263566666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.157907</v>
+      </c>
+      <c r="O9">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="P9">
+        <v>0.04167683907725921</v>
+      </c>
+      <c r="Q9">
+        <v>0.004695680458999999</v>
+      </c>
+      <c r="R9">
+        <v>0.042261124131</v>
+      </c>
+      <c r="S9">
+        <v>0.004063451613240351</v>
+      </c>
+      <c r="T9">
+        <v>0.004063451613240352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.089211</v>
+      </c>
+      <c r="H10">
+        <v>0.267633</v>
+      </c>
+      <c r="I10">
+        <v>0.0974990355124498</v>
+      </c>
+      <c r="J10">
+        <v>0.09749903551244982</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9903663333333332</v>
+      </c>
+      <c r="N10">
+        <v>2.971099</v>
+      </c>
+      <c r="O10">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="P10">
+        <v>0.7841705238248193</v>
+      </c>
+      <c r="Q10">
+        <v>0.08835157096299999</v>
+      </c>
+      <c r="R10">
+        <v>0.795164138667</v>
+      </c>
+      <c r="S10">
+        <v>0.07645586975021243</v>
+      </c>
+      <c r="T10">
+        <v>0.07645586975021243</v>
       </c>
     </row>
   </sheetData>
